--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="243"/>
   </bookViews>
   <sheets>
     <sheet name="HPNR_BCH_withMaint_Edit" sheetId="1" state="visible" r:id="rId2"/>
@@ -1707,11 +1707,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -1891,7 +1891,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -2116,7 +2116,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2311,7 +2311,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2506,7 +2506,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2701,7 +2701,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2896,7 +2896,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3091,7 +3091,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3292,7 +3292,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3505,7 +3505,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3706,7 +3706,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3919,7 +3919,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4128,11 +4128,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -4345,7 +4345,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4558,7 +4558,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4771,7 +4771,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4984,7 +4984,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5197,7 +5197,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5410,7 +5410,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5611,7 +5611,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5812,7 +5812,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6013,7 +6013,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6214,7 +6214,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6415,7 +6415,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -6640,7 +6640,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6841,7 +6841,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -6951,7 +6951,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7116,7 +7116,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7293,7 +7293,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7455,7 +7455,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7632,7 +7632,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7794,7 +7794,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7956,7 +7956,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8113,7 +8113,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8289,7 +8289,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -8496,7 +8496,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8653,7 +8653,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8829,7 +8829,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8986,7 +8986,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9162,7 +9162,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9319,7 +9319,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9495,7 +9495,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9652,7 +9652,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9827,7 +9827,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9984,7 +9984,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10159,7 +10159,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -10366,7 +10366,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10523,7 +10523,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10699,7 +10699,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10856,7 +10856,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11032,7 +11032,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -11189,7 +11189,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11364,7 +11364,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -11521,7 +11521,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11696,7 +11696,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11880,7 +11880,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12076,7 +12076,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -12283,7 +12283,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12479,7 +12479,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12615,7 +12615,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -12773,7 +12773,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12891,7 +12891,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13027,7 +13027,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13145,7 +13145,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13281,7 +13281,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13441,7 +13441,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13619,7 +13619,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -13785,7 +13785,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -13992,7 +13992,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14170,7 +14170,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14335,7 +14335,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14513,7 +14513,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14678,7 +14678,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14856,7 +14856,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -15021,7 +15021,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -15199,7 +15199,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15365,7 +15365,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15549,7 +15549,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15715,7 +15715,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -15922,7 +15922,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16106,7 +16106,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16278,7 +16278,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16462,7 +16462,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16628,7 +16628,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16812,7 +16812,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16984,7 +16984,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17168,7 +17168,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17340,7 +17340,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17524,7 +17524,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
@@ -17738,7 +17738,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -17941,11 +17941,11 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18166,11 +18166,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -18379,11 +18379,11 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18608,7 +18608,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18815,7 +18815,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19022,7 +19022,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19229,7 +19229,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19436,7 +19436,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19643,7 +19643,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19850,7 +19850,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20057,7 +20057,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20264,7 +20264,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20472,7 +20472,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20685,7 +20685,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -20910,7 +20910,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -21123,7 +21123,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21348,7 +21348,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21573,7 +21573,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21798,7 +21798,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22023,7 +22023,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22248,7 +22248,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22473,7 +22473,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -22587,7 +22587,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -22795,7 +22795,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -23020,7 +23020,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23233,7 +23233,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23442,11 +23442,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23655,11 +23655,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23872,7 +23872,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24085,7 +24085,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24298,7 +24298,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24467,7 +24467,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24654,7 +24654,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24823,7 +24823,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -25016,7 +25016,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25203,7 +25203,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25372,7 +25372,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25560,7 +25560,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25729,7 +25729,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25917,7 +25917,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26105,7 +26105,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26274,7 +26274,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26462,7 +26462,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26631,7 +26631,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26800,7 +26800,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -26993,7 +26993,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27181,7 +27181,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27350,7 +27350,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27538,7 +27538,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27707,7 +27707,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27894,7 +27894,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -28063,7 +28063,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -28250,7 +28250,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -28406,7 +28406,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -28576,7 +28576,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28706,7 +28706,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -28911,7 +28911,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -29059,7 +29059,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29252,7 +29252,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29445,7 +29445,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29650,7 +29650,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29855,7 +29855,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30018,7 +30018,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30193,7 +30193,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30356,7 +30356,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30519,7 +30519,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30694,7 +30694,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -30899,7 +30899,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31062,7 +31062,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31237,7 +31237,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31400,7 +31400,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31571,11 +31571,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31692,7 +31692,7 @@
         <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>500</v>
@@ -31750,7 +31750,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31913,7 +31913,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32088,7 +32088,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32251,7 +32251,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32422,11 +32422,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32543,7 +32543,7 @@
         <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>500</v>
@@ -32597,11 +32597,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -32814,7 +32814,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32977,7 +32977,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -33152,7 +33152,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -33262,7 +33262,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33475,7 +33475,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33688,7 +33688,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -33889,7 +33889,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34090,7 +34090,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34303,7 +34303,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34516,7 +34516,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34713,11 +34713,11 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -34942,7 +34942,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35143,7 +35143,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35338,7 +35338,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35533,7 +35533,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35728,7 +35728,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35923,7 +35923,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36118,7 +36118,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36313,7 +36313,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36508,7 +36508,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36703,7 +36703,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36904,7 +36904,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -37117,7 +37117,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37318,7 +37318,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37519,7 +37519,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37720,7 +37720,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37921,7 +37921,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -38122,7 +38122,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38335,7 +38335,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38548,7 +38548,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38761,7 +38761,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38974,7 +38974,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39187,7 +39187,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -39412,7 +39412,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39625,7 +39625,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -39790,7 +39790,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -39974,7 +39974,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40170,7 +40170,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40366,7 +40366,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40550,7 +40550,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40707,7 +40707,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40883,7 +40883,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -41059,7 +41059,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -41216,7 +41216,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -41441,7 +41441,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41601,7 +41601,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41779,7 +41779,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -41945,7 +41945,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -42123,7 +42123,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42299,7 +42299,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42456,7 +42456,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42632,7 +42632,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42789,7 +42789,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42964,7 +42964,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -43121,7 +43121,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -43235,7 +43235,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -43460,7 +43460,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -43617,7 +43617,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43792,7 +43792,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43958,7 +43958,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44142,7 +44142,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44326,7 +44326,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44498,7 +44498,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44682,7 +44682,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44854,7 +44854,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45032,7 +45032,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45210,7 +45210,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -45435,7 +45435,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45613,7 +45613,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45778,7 +45778,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45943,7 +45943,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
@@ -46113,7 +46113,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="23.08"/>
   </cols>
@@ -46264,7 +46264,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -46400,7 +46400,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46576,7 +46576,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46752,7 +46752,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -46909,7 +46909,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47084,7 +47084,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -47309,7 +47309,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47484,7 +47484,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47641,7 +47641,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47798,7 +47798,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47975,7 +47975,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -48152,7 +48152,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48314,7 +48314,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48476,7 +48476,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48638,7 +48638,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -48786,7 +48786,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -48954,7 +48954,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -49179,7 +49179,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.66"/>
@@ -49361,7 +49361,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -49519,7 +49519,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49679,7 +49679,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49829,7 +49829,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49989,7 +49989,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50131,7 +50131,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50281,7 +50281,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -50446,7 +50446,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50582,7 +50582,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50700,7 +50700,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -50925,7 +50925,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51061,7 +51061,7 @@
       <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51245,7 +51245,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51411,7 +51411,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51577,7 +51577,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51761,7 +51761,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -51933,7 +51933,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -52117,7 +52117,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52235,7 +52235,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -52350,7 +52350,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -52507,7 +52507,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52720,7 +52720,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52856,7 +52856,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
@@ -52898,7 +52898,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53111,7 +53111,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53324,7 +53324,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53537,7 +53537,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53750,7 +53750,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -53924,7 +53924,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -54137,7 +54137,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -54312,7 +54312,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54500,7 +54500,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54669,7 +54669,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54857,7 +54857,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55026,7 +55026,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55195,7 +55195,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55382,7 +55382,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55551,7 +55551,7 @@
       <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55738,7 +55738,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -55927,7 +55927,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56096,7 +56096,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56284,7 +56284,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56453,7 +56453,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56641,7 +56641,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56810,7 +56810,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56998,7 +56998,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57167,7 +57167,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57355,7 +57355,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57524,7 +57524,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57711,7 +57711,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -57886,7 +57886,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -58055,7 +58055,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -58242,7 +58242,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -58398,7 +58398,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -58568,7 +58568,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58698,7 +58698,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58846,7 +58846,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59009,7 +59009,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59184,7 +59184,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59347,7 +59347,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59510,7 +59510,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -59684,7 +59684,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59859,7 +59859,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60022,7 +60022,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60197,7 +60197,7 @@
       <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60356,11 +60356,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60477,7 +60477,7 @@
         <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>500</v>
@@ -60535,7 +60535,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60698,7 +60698,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60870,10 +60870,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61032,11 +61032,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61153,7 +61153,7 @@
         <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>500</v>
@@ -61211,7 +61211,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61374,7 +61374,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -61563,7 +61563,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61738,7 +61738,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61901,7 +61901,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62076,7 +62076,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62239,7 +62239,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62414,7 +62414,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62577,7 +62577,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62752,7 +62752,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62915,7 +62915,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63086,11 +63086,11 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63253,7 +63253,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -63462,11 +63462,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63641,7 +63641,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63804,7 +63804,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63979,7 +63979,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64180,7 +64180,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64393,7 +64393,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64594,7 +64594,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64807,7 +64807,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65002,7 +65002,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65197,7 +65197,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="243"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="180"/>
   </bookViews>
   <sheets>
     <sheet name="HPNR_BCH_withMaint_Edit" sheetId="1" state="visible" r:id="rId2"/>
@@ -1711,7 +1711,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -1891,7 +1891,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -2116,7 +2116,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2311,7 +2311,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2506,7 +2506,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2701,7 +2701,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2896,7 +2896,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3091,7 +3091,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3292,7 +3292,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3505,7 +3505,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3706,7 +3706,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3919,7 +3919,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4128,11 +4128,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -4320,7 +4320,7 @@
         <v>24</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4345,7 +4345,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4558,7 +4558,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4771,7 +4771,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4984,7 +4984,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5197,7 +5197,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5410,7 +5410,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5611,7 +5611,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5812,7 +5812,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6013,7 +6013,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6214,7 +6214,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6415,7 +6415,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -6640,7 +6640,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6841,7 +6841,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -6951,7 +6951,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7116,7 +7116,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7293,7 +7293,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7455,7 +7455,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7632,7 +7632,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7794,7 +7794,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7956,7 +7956,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8113,7 +8113,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8289,7 +8289,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -8496,7 +8496,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8653,7 +8653,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8829,7 +8829,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8986,7 +8986,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9162,7 +9162,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9319,7 +9319,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9495,7 +9495,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9652,7 +9652,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9827,7 +9827,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9984,7 +9984,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10159,7 +10159,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -10366,7 +10366,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10523,7 +10523,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10699,7 +10699,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10856,7 +10856,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11032,7 +11032,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -11189,7 +11189,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11364,7 +11364,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -11521,7 +11521,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11696,7 +11696,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11880,7 +11880,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12076,7 +12076,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -12283,7 +12283,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12479,7 +12479,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12615,7 +12615,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -12773,7 +12773,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12891,7 +12891,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13027,7 +13027,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13145,7 +13145,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13281,7 +13281,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13441,7 +13441,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13619,7 +13619,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -13785,7 +13785,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -13992,7 +13992,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14170,7 +14170,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14335,7 +14335,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14513,7 +14513,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14678,7 +14678,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14856,7 +14856,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -15021,7 +15021,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -15199,7 +15199,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15365,7 +15365,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15549,7 +15549,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15715,7 +15715,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -15922,7 +15922,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16106,7 +16106,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16278,7 +16278,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16462,7 +16462,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16628,7 +16628,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16812,7 +16812,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16984,7 +16984,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17168,7 +17168,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17340,7 +17340,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17524,7 +17524,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
@@ -17738,7 +17738,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -17945,7 +17945,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18166,11 +18166,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -18358,7 +18358,7 @@
         <v>24</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -18379,11 +18379,11 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18608,7 +18608,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18815,7 +18815,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19022,7 +19022,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19229,7 +19229,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19436,7 +19436,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19643,7 +19643,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19850,7 +19850,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20057,7 +20057,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20264,7 +20264,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20472,7 +20472,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20685,7 +20685,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -20910,7 +20910,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -21123,7 +21123,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21348,7 +21348,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21573,7 +21573,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21798,7 +21798,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22023,7 +22023,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22248,7 +22248,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22473,7 +22473,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -22587,7 +22587,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -22795,7 +22795,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -23020,7 +23020,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23233,7 +23233,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23446,7 +23446,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23659,7 +23659,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23872,7 +23872,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24085,7 +24085,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24298,7 +24298,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24467,7 +24467,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24654,7 +24654,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24823,7 +24823,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -25016,7 +25016,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25203,7 +25203,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25372,7 +25372,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25560,7 +25560,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25729,7 +25729,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25917,7 +25917,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26105,7 +26105,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26274,7 +26274,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26462,7 +26462,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26631,7 +26631,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26800,7 +26800,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -26993,7 +26993,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27181,7 +27181,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27350,7 +27350,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27538,7 +27538,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27707,7 +27707,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27894,7 +27894,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -28063,7 +28063,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -28250,7 +28250,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -28406,7 +28406,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -28576,7 +28576,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28706,7 +28706,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -28911,7 +28911,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -29059,7 +29059,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29252,7 +29252,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29445,7 +29445,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29650,7 +29650,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29855,7 +29855,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30018,7 +30018,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30193,7 +30193,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30356,7 +30356,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30519,7 +30519,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30694,7 +30694,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -30899,7 +30899,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31062,7 +31062,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31237,7 +31237,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31400,7 +31400,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31571,11 +31571,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31750,7 +31750,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31913,7 +31913,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32088,7 +32088,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32251,7 +32251,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32426,7 +32426,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32601,7 +32601,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -32814,7 +32814,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32977,7 +32977,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -33152,7 +33152,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -33262,7 +33262,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33475,7 +33475,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33688,7 +33688,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -33889,7 +33889,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34090,7 +34090,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34303,7 +34303,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34516,7 +34516,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34717,7 +34717,7 @@
       <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -34942,7 +34942,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35143,7 +35143,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35338,7 +35338,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35533,7 +35533,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35728,7 +35728,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35923,7 +35923,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36118,7 +36118,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36313,7 +36313,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36508,7 +36508,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36703,7 +36703,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36904,7 +36904,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -37117,7 +37117,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37318,7 +37318,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37519,7 +37519,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37720,7 +37720,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37921,7 +37921,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -38122,7 +38122,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38335,7 +38335,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38548,7 +38548,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38761,7 +38761,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38974,7 +38974,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39187,7 +39187,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -39412,7 +39412,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39625,7 +39625,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -39790,7 +39790,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -39974,7 +39974,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40170,7 +40170,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40366,7 +40366,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40550,7 +40550,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40707,7 +40707,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40883,7 +40883,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -41059,7 +41059,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -41216,7 +41216,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -41441,7 +41441,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41601,7 +41601,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41779,7 +41779,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -41945,7 +41945,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -42123,7 +42123,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42299,7 +42299,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42456,7 +42456,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42632,7 +42632,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42789,7 +42789,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42964,7 +42964,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -43121,7 +43121,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -43235,7 +43235,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -43460,7 +43460,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -43617,7 +43617,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43792,7 +43792,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43958,7 +43958,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44142,7 +44142,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44326,7 +44326,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44498,7 +44498,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44682,7 +44682,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44854,7 +44854,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45032,7 +45032,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45210,7 +45210,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -45435,7 +45435,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45613,7 +45613,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45778,7 +45778,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45943,7 +45943,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
@@ -46113,7 +46113,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="23.08"/>
   </cols>
@@ -46264,7 +46264,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -46400,7 +46400,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46576,7 +46576,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46752,7 +46752,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -46909,7 +46909,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47084,7 +47084,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -47309,7 +47309,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47484,7 +47484,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47641,7 +47641,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47798,7 +47798,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47975,7 +47975,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -48152,7 +48152,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48314,7 +48314,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48476,7 +48476,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48638,7 +48638,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -48786,7 +48786,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -48954,7 +48954,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -49179,7 +49179,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.66"/>
@@ -49361,7 +49361,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -49519,7 +49519,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49679,7 +49679,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49829,7 +49829,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49989,7 +49989,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50131,7 +50131,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50281,7 +50281,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -50446,7 +50446,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50582,7 +50582,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50700,7 +50700,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -50925,7 +50925,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51061,7 +51061,7 @@
       <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51245,7 +51245,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51411,7 +51411,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51577,7 +51577,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51761,7 +51761,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -51933,7 +51933,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -52117,7 +52117,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52235,7 +52235,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -52350,7 +52350,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -52507,7 +52507,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52720,7 +52720,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52856,7 +52856,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
@@ -52898,7 +52898,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53111,7 +53111,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53324,7 +53324,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53537,7 +53537,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53750,7 +53750,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -53924,7 +53924,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -54137,7 +54137,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -54312,7 +54312,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54500,7 +54500,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54669,7 +54669,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54857,7 +54857,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55026,7 +55026,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55195,7 +55195,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55382,7 +55382,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55551,7 +55551,7 @@
       <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55738,7 +55738,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -55927,7 +55927,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56096,7 +56096,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56284,7 +56284,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56453,7 +56453,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56641,7 +56641,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56810,7 +56810,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56998,7 +56998,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57167,7 +57167,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57355,7 +57355,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57524,7 +57524,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57711,7 +57711,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -57886,7 +57886,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -58055,7 +58055,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -58242,7 +58242,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -58398,7 +58398,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -58568,7 +58568,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58698,7 +58698,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58846,7 +58846,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59009,7 +59009,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59184,7 +59184,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59347,7 +59347,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59510,7 +59510,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -59684,7 +59684,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59859,7 +59859,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60022,7 +60022,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60197,7 +60197,7 @@
       <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60360,7 +60360,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60535,7 +60535,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60698,7 +60698,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60873,7 +60873,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61036,7 +61036,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61211,7 +61211,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61374,7 +61374,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -61563,7 +61563,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61738,7 +61738,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61901,7 +61901,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62076,7 +62076,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62239,7 +62239,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62414,7 +62414,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62577,7 +62577,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62752,7 +62752,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62915,7 +62915,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63090,7 +63090,7 @@
       <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63253,7 +63253,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -63466,7 +63466,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63641,7 +63641,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63804,7 +63804,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63979,7 +63979,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64180,7 +64180,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64393,7 +64393,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64594,7 +64594,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64807,7 +64807,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65002,7 +65002,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65197,7 +65197,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="180"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="69"/>
   </bookViews>
   <sheets>
     <sheet name="HPNR_BCH_withMaint_Edit" sheetId="1" state="visible" r:id="rId2"/>
@@ -1711,7 +1711,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -1891,7 +1891,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -2116,7 +2116,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2311,7 +2311,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2506,7 +2506,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2701,7 +2701,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2896,7 +2896,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3091,7 +3091,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3292,7 +3292,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3505,7 +3505,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3706,7 +3706,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3919,7 +3919,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4132,7 +4132,7 @@
       <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -4345,7 +4345,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4558,7 +4558,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4771,7 +4771,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4984,7 +4984,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5197,7 +5197,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5410,7 +5410,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5611,7 +5611,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5812,7 +5812,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6013,7 +6013,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6214,7 +6214,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6415,7 +6415,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -6640,7 +6640,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6841,7 +6841,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -6951,7 +6951,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7116,7 +7116,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7293,7 +7293,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7455,7 +7455,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7632,7 +7632,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7794,7 +7794,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7956,7 +7956,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8113,7 +8113,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8289,7 +8289,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -8496,7 +8496,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8653,7 +8653,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8829,7 +8829,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8986,7 +8986,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9162,7 +9162,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9319,7 +9319,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9495,7 +9495,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9652,7 +9652,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9827,7 +9827,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9984,7 +9984,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10159,7 +10159,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -10366,7 +10366,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10523,7 +10523,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10699,7 +10699,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10856,7 +10856,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11032,7 +11032,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -11189,7 +11189,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11364,7 +11364,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -11521,7 +11521,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11696,7 +11696,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11880,7 +11880,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12076,7 +12076,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -12283,7 +12283,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12479,7 +12479,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12615,7 +12615,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -12773,7 +12773,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12891,7 +12891,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13027,7 +13027,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13145,7 +13145,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13281,7 +13281,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13441,7 +13441,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13619,7 +13619,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -13785,7 +13785,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -13992,7 +13992,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14170,7 +14170,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14335,7 +14335,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14513,7 +14513,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14678,7 +14678,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14856,7 +14856,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -15021,7 +15021,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -15199,7 +15199,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15365,7 +15365,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15549,7 +15549,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15715,7 +15715,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -15922,7 +15922,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16106,7 +16106,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16278,7 +16278,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16462,7 +16462,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16628,7 +16628,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16812,7 +16812,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16984,7 +16984,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17168,7 +17168,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17340,7 +17340,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17524,7 +17524,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
@@ -17738,7 +17738,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -17945,7 +17945,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18166,11 +18166,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -18383,7 +18383,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18608,7 +18608,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18815,7 +18815,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19022,7 +19022,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19229,7 +19229,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19436,7 +19436,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19643,7 +19643,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19850,7 +19850,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20057,7 +20057,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20264,7 +20264,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20472,7 +20472,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20685,7 +20685,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -20910,7 +20910,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -21123,7 +21123,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21348,7 +21348,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21573,7 +21573,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21798,7 +21798,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22023,7 +22023,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22248,7 +22248,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22473,7 +22473,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -22587,7 +22587,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -22795,7 +22795,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -23020,7 +23020,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23233,7 +23233,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23446,7 +23446,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23659,7 +23659,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23872,7 +23872,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24085,7 +24085,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24298,7 +24298,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24467,7 +24467,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24654,7 +24654,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24823,7 +24823,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -25016,7 +25016,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25203,7 +25203,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25372,7 +25372,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25560,7 +25560,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25729,7 +25729,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25917,7 +25917,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26105,7 +26105,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26274,7 +26274,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26462,7 +26462,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26631,7 +26631,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26800,7 +26800,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -26993,7 +26993,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27181,7 +27181,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27350,7 +27350,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27538,7 +27538,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27707,7 +27707,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27894,7 +27894,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -28063,7 +28063,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -28250,7 +28250,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -28406,7 +28406,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -28576,7 +28576,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28706,7 +28706,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -28911,7 +28911,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -29059,7 +29059,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29252,7 +29252,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29445,7 +29445,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29650,7 +29650,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29855,7 +29855,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30018,7 +30018,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30193,7 +30193,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30356,7 +30356,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30519,7 +30519,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30694,7 +30694,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -30899,7 +30899,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31062,7 +31062,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31237,7 +31237,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31400,7 +31400,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31575,7 +31575,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31750,7 +31750,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31913,7 +31913,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32088,7 +32088,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32251,7 +32251,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32426,7 +32426,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32601,7 +32601,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -32814,7 +32814,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32977,7 +32977,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -33152,7 +33152,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -33262,7 +33262,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33475,7 +33475,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33688,7 +33688,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -33889,7 +33889,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34090,7 +34090,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34303,7 +34303,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34516,7 +34516,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34717,7 +34717,7 @@
       <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -34942,7 +34942,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35143,7 +35143,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35338,7 +35338,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35533,7 +35533,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35728,7 +35728,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35923,7 +35923,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36118,7 +36118,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36313,7 +36313,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36508,7 +36508,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36703,7 +36703,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36904,7 +36904,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -37117,7 +37117,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37318,7 +37318,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37519,7 +37519,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37720,7 +37720,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37921,7 +37921,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -38122,7 +38122,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38335,7 +38335,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38548,7 +38548,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38761,7 +38761,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38974,7 +38974,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39187,7 +39187,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -39412,7 +39412,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39625,7 +39625,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -39790,7 +39790,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -39974,7 +39974,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40170,7 +40170,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40366,7 +40366,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40550,7 +40550,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40707,7 +40707,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40883,7 +40883,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -41059,7 +41059,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -41216,7 +41216,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -41441,7 +41441,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41601,7 +41601,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41779,7 +41779,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -41945,7 +41945,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -42123,7 +42123,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42299,7 +42299,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42456,7 +42456,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42632,7 +42632,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42789,7 +42789,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42964,7 +42964,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -43121,7 +43121,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -43235,7 +43235,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -43460,7 +43460,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -43617,7 +43617,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43792,7 +43792,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43958,7 +43958,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44142,7 +44142,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44326,7 +44326,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44498,7 +44498,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44682,7 +44682,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44854,7 +44854,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45032,7 +45032,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45210,7 +45210,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -45435,7 +45435,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45613,7 +45613,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45778,7 +45778,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45943,7 +45943,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
@@ -46113,7 +46113,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="23.08"/>
   </cols>
@@ -46264,7 +46264,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -46400,7 +46400,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46576,7 +46576,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46752,7 +46752,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -46909,7 +46909,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47084,7 +47084,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -47309,7 +47309,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47484,7 +47484,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47641,7 +47641,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47798,7 +47798,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47975,7 +47975,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -48152,7 +48152,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48314,7 +48314,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48476,7 +48476,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48638,7 +48638,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -48786,7 +48786,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -48954,7 +48954,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -49179,7 +49179,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.66"/>
@@ -49361,7 +49361,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -49519,7 +49519,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49679,7 +49679,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49829,7 +49829,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49989,7 +49989,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50131,7 +50131,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50281,7 +50281,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -50446,7 +50446,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50582,7 +50582,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50700,7 +50700,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -50925,7 +50925,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51061,7 +51061,7 @@
       <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51245,7 +51245,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51411,7 +51411,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51577,7 +51577,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51761,7 +51761,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -51933,7 +51933,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -52117,7 +52117,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52235,7 +52235,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -52350,7 +52350,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -52507,7 +52507,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52720,7 +52720,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52856,7 +52856,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
@@ -52898,7 +52898,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53111,7 +53111,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53324,7 +53324,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53537,7 +53537,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53750,7 +53750,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -53924,7 +53924,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -54137,7 +54137,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -54312,7 +54312,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54500,7 +54500,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54669,7 +54669,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54857,7 +54857,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55026,7 +55026,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55195,7 +55195,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55382,7 +55382,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55551,7 +55551,7 @@
       <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55738,7 +55738,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -55927,7 +55927,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56096,7 +56096,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56284,7 +56284,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56453,7 +56453,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56641,7 +56641,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56810,7 +56810,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56998,7 +56998,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57167,7 +57167,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57355,7 +57355,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57524,7 +57524,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57711,7 +57711,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -57886,7 +57886,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -58055,7 +58055,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -58242,7 +58242,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -58398,7 +58398,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -58568,7 +58568,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58698,7 +58698,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58846,7 +58846,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59009,7 +59009,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59184,7 +59184,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59347,7 +59347,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59510,7 +59510,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -59680,11 +59680,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59801,7 +59801,7 @@
         <v>1000</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>199.99</v>
+        <v>239.99</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>500</v>
@@ -59859,7 +59859,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60022,7 +60022,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60197,7 +60197,7 @@
       <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60360,7 +60360,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60535,7 +60535,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60698,7 +60698,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60873,7 +60873,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61036,7 +61036,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61211,7 +61211,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61374,7 +61374,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -61563,7 +61563,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61738,7 +61738,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61901,7 +61901,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62076,7 +62076,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62239,7 +62239,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62414,7 +62414,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62577,7 +62577,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62752,7 +62752,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62915,7 +62915,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63090,7 +63090,7 @@
       <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63253,7 +63253,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -63466,7 +63466,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63641,7 +63641,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63804,7 +63804,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63979,7 +63979,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64180,7 +64180,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64393,7 +64393,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64594,7 +64594,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64807,7 +64807,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65002,7 +65002,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65197,7 +65197,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="69"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="349"/>
   </bookViews>
   <sheets>
     <sheet name="HPNR_BCH_withMaint_Edit" sheetId="1" state="visible" r:id="rId2"/>
@@ -1707,11 +1707,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="D2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -1888,10 +1888,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -2013,7 +2013,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -2116,7 +2116,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2217,7 +2217,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -2311,7 +2311,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2412,7 +2412,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -2506,7 +2506,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2607,7 +2607,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -2701,7 +2701,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2802,7 +2802,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -2896,7 +2896,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2997,7 +2997,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -3091,7 +3091,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3195,7 +3195,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -3292,7 +3292,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3402,7 +3402,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -3505,7 +3505,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3609,7 +3609,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -3706,7 +3706,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3816,7 +3816,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -3919,7 +3919,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4029,7 +4029,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -4128,11 +4128,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -4248,7 +4248,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -4345,7 +4345,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4455,7 +4455,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -4558,7 +4558,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4668,7 +4668,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -4771,7 +4771,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4881,7 +4881,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -4984,7 +4984,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5094,7 +5094,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -5197,7 +5197,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5307,7 +5307,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -5410,7 +5410,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5514,7 +5514,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -5611,7 +5611,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5715,7 +5715,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -5812,7 +5812,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5916,7 +5916,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45417</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -6013,7 +6013,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6117,7 +6117,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45417</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -6214,7 +6214,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6318,7 +6318,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45417</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -6412,10 +6412,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -6537,7 +6537,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -6640,7 +6640,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6744,7 +6744,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45417</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -6838,10 +6838,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -6948,10 +6948,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7043,7 +7043,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -7113,10 +7113,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7214,7 +7214,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -7290,10 +7290,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7385,7 +7385,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -7452,10 +7452,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7553,7 +7553,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -7629,10 +7629,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7724,7 +7724,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -7791,10 +7791,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7886,7 +7886,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -7953,10 +7953,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D2 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8110,10 +8110,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8286,10 +8286,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -8402,7 +8402,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>33</v>
@@ -8493,10 +8493,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8650,10 +8650,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8826,10 +8826,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8983,10 +8983,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9159,10 +9159,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9316,10 +9316,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9492,10 +9492,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9649,10 +9649,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9824,10 +9824,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9981,10 +9981,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10156,10 +10156,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -10272,7 +10272,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>33</v>
@@ -10363,10 +10363,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10520,10 +10520,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10696,10 +10696,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10853,10 +10853,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11029,10 +11029,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -11186,10 +11186,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11361,10 +11361,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -11518,10 +11518,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11696,7 +11696,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11792,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -11880,7 +11880,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -11982,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -12073,10 +12073,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -12189,7 +12189,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -12283,7 +12283,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -12479,7 +12479,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12548,7 +12548,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -12615,7 +12615,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -12697,7 +12697,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -12773,7 +12773,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12833,7 +12833,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -12891,7 +12891,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12960,7 +12960,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -13027,7 +13027,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13087,7 +13087,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -13141,11 +13141,11 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13214,7 +13214,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -13278,10 +13278,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13438,10 +13438,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13616,10 +13616,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -13782,10 +13782,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -13898,7 +13898,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -13989,10 +13989,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14167,10 +14167,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14332,10 +14332,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14510,10 +14510,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14675,10 +14675,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14853,10 +14853,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -15018,10 +15018,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -15196,10 +15196,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15362,10 +15362,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15546,10 +15546,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15712,10 +15712,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -15828,7 +15828,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -15919,10 +15919,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16103,10 +16103,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16275,10 +16275,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16459,10 +16459,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16625,10 +16625,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D2 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16809,10 +16809,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16981,10 +16981,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17165,10 +17165,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17337,10 +17337,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17521,10 +17521,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
@@ -17641,7 +17641,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -17735,10 +17735,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -17851,7 +17851,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -17941,11 +17941,11 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18067,7 +18067,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -18166,11 +18166,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -18286,7 +18286,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -18379,11 +18379,11 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18505,7 +18505,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -18605,10 +18605,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18721,7 +18721,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>33</v>
@@ -18812,10 +18812,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18928,7 +18928,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>33</v>
@@ -19019,10 +19019,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19135,7 +19135,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -19226,10 +19226,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19342,7 +19342,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -19433,10 +19433,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19549,7 +19549,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -19640,10 +19640,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19756,7 +19756,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -19847,10 +19847,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19963,7 +19963,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -20054,10 +20054,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20170,7 +20170,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -20261,10 +20261,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20378,7 +20378,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -20468,11 +20468,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20588,7 +20588,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -20682,10 +20682,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -20807,7 +20807,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -20907,10 +20907,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -21026,7 +21026,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -21120,10 +21120,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21245,7 +21245,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -21345,10 +21345,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21470,7 +21470,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -21570,10 +21570,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21695,7 +21695,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -21795,10 +21795,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21920,7 +21920,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -22020,10 +22020,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22145,7 +22145,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -22245,10 +22245,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22370,7 +22370,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -22470,10 +22470,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -22584,10 +22584,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -22701,7 +22701,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -22792,10 +22792,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22917,7 +22917,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -23017,10 +23017,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23136,7 +23136,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -23230,10 +23230,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23349,7 +23349,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -23442,11 +23442,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23562,7 +23562,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -23655,11 +23655,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23775,7 +23775,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -23869,10 +23869,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23988,7 +23988,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -24082,10 +24082,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24201,7 +24201,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -24295,10 +24295,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D2 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24464,10 +24464,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24651,10 +24651,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24820,10 +24820,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -24928,7 +24928,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -25013,10 +25013,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25200,10 +25200,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25369,10 +25369,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25557,10 +25557,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25726,10 +25726,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25914,10 +25914,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26102,10 +26102,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26271,10 +26271,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26459,10 +26459,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26628,10 +26628,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26797,10 +26797,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -26905,7 +26905,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -26990,10 +26990,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27178,10 +27178,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27347,10 +27347,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27535,10 +27535,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27704,10 +27704,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27891,10 +27891,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -28060,10 +28060,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -28247,10 +28247,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -28339,7 +28339,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -28403,10 +28403,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -28500,7 +28500,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -28573,10 +28573,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28648,7 +28648,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -28703,10 +28703,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -28817,7 +28817,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -28908,10 +28908,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28992,7 +28992,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -29056,10 +29056,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29164,7 +29164,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -29249,10 +29249,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29357,7 +29357,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -29442,10 +29442,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29556,7 +29556,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -29647,10 +29647,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29761,7 +29761,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -29852,10 +29852,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30015,10 +30015,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30190,10 +30190,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30353,10 +30353,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30516,10 +30516,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30691,10 +30691,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -30805,7 +30805,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -30896,10 +30896,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31059,10 +31059,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31234,10 +31234,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31397,10 +31397,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31571,11 +31571,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31747,10 +31747,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31910,10 +31910,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32085,10 +32085,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32248,10 +32248,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32423,10 +32423,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32597,11 +32597,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -32717,7 +32717,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -32811,10 +32811,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32974,10 +32974,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -33149,10 +33149,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -33262,7 +33262,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33372,7 +33372,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -33475,7 +33475,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33585,7 +33585,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -33688,7 +33688,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -33792,7 +33792,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -33889,7 +33889,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -33993,7 +33993,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -34090,7 +34090,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34200,7 +34200,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -34303,7 +34303,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34413,7 +34413,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -34516,7 +34516,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34620,7 +34620,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -34713,11 +34713,11 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -34839,7 +34839,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -34942,7 +34942,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35046,7 +35046,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -35143,7 +35143,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35244,7 +35244,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -35338,7 +35338,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35439,7 +35439,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -35533,7 +35533,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35634,7 +35634,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -35728,7 +35728,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35829,7 +35829,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -35923,7 +35923,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36024,7 +36024,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -36118,7 +36118,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36219,7 +36219,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -36313,7 +36313,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36414,7 +36414,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -36508,7 +36508,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36609,7 +36609,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -36703,7 +36703,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36807,7 +36807,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -36901,10 +36901,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -37020,7 +37020,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -37117,7 +37117,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37221,7 +37221,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -37318,7 +37318,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37422,7 +37422,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -37519,7 +37519,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37623,7 +37623,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -37720,7 +37720,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37824,7 +37824,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -37918,10 +37918,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -38025,7 +38025,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -38122,7 +38122,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38232,7 +38232,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -38335,7 +38335,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38445,7 +38445,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -38548,7 +38548,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38658,7 +38658,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -38761,7 +38761,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38871,7 +38871,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -38974,7 +38974,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39084,7 +39084,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -39184,10 +39184,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -39309,7 +39309,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -39412,7 +39412,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39522,7 +39522,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -39622,10 +39622,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D2 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -39790,7 +39790,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -39886,7 +39886,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -39974,7 +39974,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40076,7 +40076,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -40170,7 +40170,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40272,7 +40272,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -40366,7 +40366,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40462,7 +40462,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -40547,10 +40547,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40704,10 +40704,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40880,10 +40880,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -41056,10 +41056,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -41213,10 +41213,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -41338,7 +41338,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -41438,10 +41438,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41598,10 +41598,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41776,10 +41776,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -41942,10 +41942,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -42120,10 +42120,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42296,10 +42296,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42453,10 +42453,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42629,10 +42629,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42786,10 +42786,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42961,10 +42961,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -43118,10 +43118,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -43232,10 +43232,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -43357,7 +43357,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -43457,10 +43457,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="D2 J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -43614,10 +43614,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="D2 Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43789,10 +43789,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43955,10 +43955,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44138,11 +44138,11 @@
   </sheetPr>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="1" sqref="D2 X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44323,10 +44323,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44495,10 +44495,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44679,10 +44679,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44851,10 +44851,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45029,10 +45029,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45207,10 +45207,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -45332,7 +45332,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -45432,10 +45432,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45610,10 +45610,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45775,10 +45775,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45940,10 +45940,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
@@ -46110,10 +46110,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="23.08"/>
   </cols>
@@ -46261,10 +46261,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -46397,10 +46397,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46573,10 +46573,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46749,10 +46749,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -46906,10 +46906,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47081,10 +47081,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -47206,7 +47206,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -47306,10 +47306,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47481,10 +47481,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47638,10 +47638,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47795,10 +47795,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47896,7 +47896,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -47972,10 +47972,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -48073,7 +48073,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -48149,10 +48149,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48244,7 +48244,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -48311,10 +48311,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48406,7 +48406,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -48473,10 +48473,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48568,7 +48568,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -48635,10 +48635,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -48783,10 +48783,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -48884,7 +48884,7 @@
         <v>63</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>12</v>
@@ -48951,10 +48951,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -49076,7 +49076,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -49176,10 +49176,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.66"/>
@@ -49282,7 +49282,7 @@
         <v>63</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>12</v>
@@ -49361,7 +49361,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -49443,7 +49443,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -49516,10 +49516,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49609,7 +49609,7 @@
         <v>63</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>12</v>
@@ -49676,10 +49676,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49768,7 +49768,7 @@
         <v>63</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>12</v>
@@ -49826,10 +49826,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49919,7 +49919,7 @@
         <v>63</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>12</v>
@@ -49986,10 +49986,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="D2 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50128,10 +50128,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50220,7 +50220,7 @@
         <v>63</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>12</v>
@@ -50278,10 +50278,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -50373,7 +50373,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -50446,7 +50446,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50515,7 +50515,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -50582,7 +50582,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50642,7 +50642,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -50697,10 +50697,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -50822,7 +50822,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -50925,7 +50925,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50994,7 +50994,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -51058,10 +51058,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="topLeft" activeCell="Y1" activeCellId="1" sqref="D2 Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51242,10 +51242,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51408,10 +51408,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.19921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51574,10 +51574,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51758,10 +51758,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -51930,10 +51930,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -52117,7 +52117,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52177,7 +52177,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -52235,7 +52235,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -52298,7 +52298,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -52347,10 +52347,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -52504,10 +52504,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52623,7 +52623,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -52716,11 +52716,11 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52789,7 +52789,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45058</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>12</v>
@@ -52853,10 +52853,10 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="D2 E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
@@ -52895,10 +52895,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53014,7 +53014,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -53108,10 +53108,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53227,7 +53227,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -53321,10 +53321,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53440,7 +53440,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -53534,10 +53534,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53653,7 +53653,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -53747,10 +53747,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -53921,10 +53921,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -54040,7 +54040,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -54134,10 +54134,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -54242,7 +54242,7 @@
         <v>63</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>45424</v>
+        <v>46055</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>12</v>
@@ -54309,10 +54309,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54497,10 +54497,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54666,10 +54666,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54854,10 +54854,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="D2 O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55023,10 +55023,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55192,10 +55192,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D2 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55379,10 +55379,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55548,10 +55548,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="D2 Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55735,10 +55735,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -55924,10 +55924,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56093,10 +56093,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56280,11 +56280,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="D2 R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56449,11 +56449,11 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="D2 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56637,11 +56637,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="D2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56806,11 +56806,11 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56994,11 +56994,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57163,11 +57163,11 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57351,11 +57351,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="D2 I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57521,10 +57521,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="D2 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57708,10 +57708,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -57816,7 +57816,7 @@
         <v>63</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>45424</v>
+        <v>46055</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>12</v>
@@ -57883,10 +57883,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="D2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -58052,10 +58052,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -58239,10 +58239,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -58331,7 +58331,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -58394,11 +58394,11 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -58492,7 +58492,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -58565,10 +58565,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58640,7 +58640,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -58695,10 +58695,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58779,7 +58779,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45424</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -58843,10 +58843,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59006,10 +59006,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59181,10 +59181,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59344,10 +59344,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="D2 E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59507,10 +59507,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -59680,11 +59680,11 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59856,10 +59856,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60019,10 +60019,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60193,11 +60193,11 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="1" sqref="D2 V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60357,10 +60357,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60532,10 +60532,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60695,10 +60695,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60870,10 +60870,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="D2 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61033,10 +61033,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61208,10 +61208,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61371,10 +61371,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -61560,10 +61560,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61735,10 +61735,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61898,10 +61898,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62073,10 +62073,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62236,10 +62236,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62411,10 +62411,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62574,10 +62574,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62749,10 +62749,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62912,10 +62912,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63086,11 +63086,11 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="D2 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63250,10 +63250,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -63369,7 +63369,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>45058</v>
+        <v>46055</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>12</v>
@@ -63463,10 +63463,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="1" sqref="D2 P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63638,10 +63638,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63801,10 +63801,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63979,7 +63979,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64083,7 +64083,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -64180,7 +64180,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64290,7 +64290,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -64393,7 +64393,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64497,7 +64497,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -64594,7 +64594,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64704,7 +64704,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -64807,7 +64807,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -64908,7 +64908,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -65002,7 +65002,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65103,7 +65103,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>
@@ -65197,7 +65197,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65298,7 +65298,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>45424</v>
+        <v>46154</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>33</v>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="349"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="257"/>
   </bookViews>
   <sheets>
     <sheet name="HPNR_BCH_withMaint_Edit" sheetId="1" state="visible" r:id="rId2"/>
@@ -1708,10 +1708,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="D2 W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -1888,10 +1888,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -2116,7 +2116,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2311,7 +2311,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2506,7 +2506,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2701,7 +2701,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2896,7 +2896,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3091,7 +3091,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3292,7 +3292,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3505,7 +3505,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3706,7 +3706,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3919,7 +3919,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4129,10 +4129,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -4345,7 +4345,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4558,7 +4558,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4771,7 +4771,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4984,7 +4984,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5197,7 +5197,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5410,7 +5410,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5611,7 +5611,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5812,7 +5812,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6013,7 +6013,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6214,7 +6214,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6412,10 +6412,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -6640,7 +6640,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6838,10 +6838,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -6948,10 +6948,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7113,10 +7113,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7290,10 +7290,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7452,10 +7452,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7629,10 +7629,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7791,10 +7791,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7953,10 +7953,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8110,10 +8110,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8286,10 +8286,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -8493,10 +8493,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8650,10 +8650,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8826,10 +8826,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8983,10 +8983,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9159,10 +9159,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9316,10 +9316,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9492,10 +9492,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9649,10 +9649,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9824,10 +9824,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9981,10 +9981,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10156,10 +10156,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -10363,10 +10363,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10520,10 +10520,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10696,10 +10696,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10853,10 +10853,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11029,10 +11029,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -11186,10 +11186,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11361,10 +11361,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -11518,10 +11518,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11696,7 +11696,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11880,7 +11880,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12073,10 +12073,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -12283,7 +12283,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12479,7 +12479,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12615,7 +12615,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -12773,7 +12773,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12891,7 +12891,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13027,7 +13027,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13145,7 +13145,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13278,10 +13278,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13438,10 +13438,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13616,10 +13616,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -13782,10 +13782,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -13989,10 +13989,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14167,10 +14167,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14332,10 +14332,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14510,10 +14510,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14675,10 +14675,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14853,10 +14853,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -15018,10 +15018,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -15196,10 +15196,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15362,10 +15362,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15546,10 +15546,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15712,10 +15712,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -15919,10 +15919,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16103,10 +16103,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16275,10 +16275,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16459,10 +16459,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16625,10 +16625,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D2 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16809,10 +16809,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16981,10 +16981,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17165,10 +17165,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17337,10 +17337,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17521,10 +17521,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
@@ -17735,10 +17735,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -17942,10 +17942,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18167,10 +18167,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -18380,10 +18380,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18605,10 +18605,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18812,10 +18812,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19019,10 +19019,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19226,10 +19226,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19433,10 +19433,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19640,10 +19640,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19847,10 +19847,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20054,10 +20054,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20261,10 +20261,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20469,10 +20469,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20682,10 +20682,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -20907,10 +20907,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -21120,10 +21120,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21345,10 +21345,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21570,10 +21570,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21795,10 +21795,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22020,10 +22020,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22245,10 +22245,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22470,10 +22470,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -22584,10 +22584,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -22792,10 +22792,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -23017,10 +23017,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23230,10 +23230,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23443,10 +23443,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23656,10 +23656,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23869,10 +23869,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24082,10 +24082,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24295,10 +24295,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24464,10 +24464,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24651,10 +24651,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24820,10 +24820,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -25013,10 +25013,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25200,10 +25200,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25369,10 +25369,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25557,10 +25557,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25726,10 +25726,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25914,10 +25914,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26102,10 +26102,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26271,10 +26271,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26459,10 +26459,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26628,10 +26628,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26797,10 +26797,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -26990,10 +26990,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27178,10 +27178,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27347,10 +27347,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27535,10 +27535,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27704,10 +27704,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27891,10 +27891,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -28060,10 +28060,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -28247,10 +28247,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -28403,10 +28403,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -28573,10 +28573,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28703,10 +28703,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -28908,10 +28908,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -29056,10 +29056,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29249,10 +29249,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29442,10 +29442,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29647,10 +29647,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29852,10 +29852,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30015,10 +30015,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30190,10 +30190,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30353,10 +30353,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30516,10 +30516,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30691,10 +30691,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -30896,10 +30896,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31059,10 +31059,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31234,10 +31234,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31397,10 +31397,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31572,10 +31572,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31747,10 +31747,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31910,10 +31910,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32085,10 +32085,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32248,10 +32248,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32423,10 +32423,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32598,10 +32598,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -32811,10 +32811,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32974,10 +32974,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -33149,10 +33149,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -33262,7 +33262,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33475,7 +33475,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33688,7 +33688,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -33889,7 +33889,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34090,7 +34090,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34299,11 +34299,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB3" activeCellId="0" sqref="AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34485,7 +34485,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>24</v>
@@ -34516,7 +34516,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34714,10 +34714,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -34942,7 +34942,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35143,7 +35143,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35338,7 +35338,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35533,7 +35533,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35728,7 +35728,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35923,7 +35923,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36118,7 +36118,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36313,7 +36313,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36508,7 +36508,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36703,7 +36703,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36901,10 +36901,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -37117,7 +37117,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37318,7 +37318,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37519,7 +37519,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37720,7 +37720,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37921,7 +37921,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -38122,7 +38122,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38335,7 +38335,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38548,7 +38548,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38761,7 +38761,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38974,7 +38974,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39184,10 +39184,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -39412,7 +39412,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39622,10 +39622,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D2 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -39790,7 +39790,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -39974,7 +39974,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40170,7 +40170,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40366,7 +40366,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40547,10 +40547,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40704,10 +40704,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40880,10 +40880,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -41056,10 +41056,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -41213,10 +41213,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -41438,10 +41438,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41598,10 +41598,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41776,10 +41776,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -41942,10 +41942,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -42120,10 +42120,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42296,10 +42296,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42453,10 +42453,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42629,10 +42629,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42786,10 +42786,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42961,10 +42961,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -43118,10 +43118,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -43232,10 +43232,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -43457,10 +43457,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="D2 J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -43614,10 +43614,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="D2 Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43789,10 +43789,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43955,10 +43955,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44139,10 +44139,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="1" sqref="D2 X2"/>
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44323,10 +44323,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44495,10 +44495,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44679,10 +44679,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44851,10 +44851,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45029,10 +45029,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45207,10 +45207,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -45432,10 +45432,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45610,10 +45610,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45775,10 +45775,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45940,10 +45940,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
@@ -46110,10 +46110,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="23.08"/>
   </cols>
@@ -46261,10 +46261,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -46397,10 +46397,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46573,10 +46573,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46749,10 +46749,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -46906,10 +46906,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47081,10 +47081,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -47306,10 +47306,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47481,10 +47481,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47638,10 +47638,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47795,10 +47795,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47972,10 +47972,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -48149,10 +48149,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48311,10 +48311,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48473,10 +48473,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48635,10 +48635,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -48783,10 +48783,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -48951,10 +48951,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -49176,10 +49176,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.66"/>
@@ -49361,7 +49361,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -49516,10 +49516,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49676,10 +49676,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49826,10 +49826,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49986,10 +49986,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="D2 K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50128,10 +50128,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="D2 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50278,10 +50278,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -50446,7 +50446,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50582,7 +50582,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50697,10 +50697,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -50925,7 +50925,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51058,10 +51058,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="1" sqref="D2 Y1"/>
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51242,10 +51242,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51408,10 +51408,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51574,10 +51574,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51758,10 +51758,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -51930,10 +51930,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -52117,7 +52117,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52235,7 +52235,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -52347,10 +52347,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -52504,10 +52504,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52716,11 +52716,11 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52853,10 +52853,10 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="D2 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
@@ -52895,10 +52895,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53108,10 +53108,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53321,10 +53321,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53534,10 +53534,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53747,10 +53747,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -53921,10 +53921,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -54134,10 +54134,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -54309,10 +54309,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54497,10 +54497,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54666,10 +54666,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54854,10 +54854,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="D2 O1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55023,10 +55023,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55192,10 +55192,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55379,10 +55379,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55548,10 +55548,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="D2 Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55735,10 +55735,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -55924,10 +55924,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56093,10 +56093,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56281,10 +56281,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="D2 R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56450,10 +56450,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="D2 Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56638,10 +56638,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="D2 W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56807,10 +56807,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56995,10 +56995,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57164,10 +57164,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57352,10 +57352,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="D2 I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57521,10 +57521,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="D2 Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57708,10 +57708,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -57883,10 +57883,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="D2 W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -58052,10 +58052,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -58239,10 +58239,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -58395,10 +58395,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -58565,10 +58565,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58695,10 +58695,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58843,10 +58843,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59006,10 +59006,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59181,10 +59181,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59344,10 +59344,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="D2 E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59507,10 +59507,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -59681,10 +59681,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59856,10 +59856,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60019,10 +60019,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60194,10 +60194,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="1" sqref="D2 V2"/>
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60357,10 +60357,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60532,10 +60532,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60695,10 +60695,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60870,10 +60870,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="D2 K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61033,10 +61033,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61208,10 +61208,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61371,10 +61371,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -61560,10 +61560,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61735,10 +61735,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61898,10 +61898,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62073,10 +62073,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62236,10 +62236,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="D2 M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62411,10 +62411,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62574,10 +62574,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62749,10 +62749,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62912,10 +62912,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63087,10 +63087,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="D2 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63250,10 +63250,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -63463,10 +63463,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="1" sqref="D2 P2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63638,10 +63638,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63801,10 +63801,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63979,7 +63979,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64180,7 +64180,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64393,7 +64393,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64594,7 +64594,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64807,7 +64807,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65002,7 +65002,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65197,7 +65197,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="257"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="299"/>
   </bookViews>
   <sheets>
     <sheet name="HPNR_BCH_withMaint_Edit" sheetId="1" state="visible" r:id="rId2"/>
@@ -946,7 +946,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10578" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10598" uniqueCount="220">
   <si>
     <t xml:space="preserve">Vehicle Basic Price</t>
   </si>
@@ -1542,6 +1542,36 @@
     <t xml:space="preserve">A7</t>
   </si>
   <si>
+    <t xml:space="preserve">vehicle_percentage_discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_discount_vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> options_percentage_discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_discount_options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paint_percentage_discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_discount_paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marketing_bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_delivery_charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otr_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic_price</t>
+  </si>
+  <si>
     <t xml:space="preserve">otrPriceForInvoice</t>
   </si>
   <si>
@@ -1586,7 +1616,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1607,6 +1637,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1663,7 +1700,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1685,6 +1722,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1711,7 +1752,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -1891,7 +1932,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -2116,7 +2157,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2311,7 +2352,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2506,7 +2547,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2701,7 +2742,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2896,7 +2937,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3091,7 +3132,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3292,7 +3333,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3505,7 +3546,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3706,7 +3747,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3919,7 +3960,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4132,7 +4173,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -4345,7 +4386,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4558,7 +4599,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4771,7 +4812,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4984,7 +5025,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5197,7 +5238,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5410,7 +5451,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5611,7 +5652,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5812,7 +5853,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6013,7 +6054,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6214,7 +6255,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6415,7 +6456,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -6640,7 +6681,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6841,7 +6882,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -6951,7 +6992,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7116,7 +7157,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7293,7 +7334,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7455,7 +7496,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7632,7 +7673,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7794,7 +7835,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7956,7 +7997,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8113,7 +8154,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8289,7 +8330,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -8496,7 +8537,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8653,7 +8694,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8829,7 +8870,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8986,7 +9027,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9162,7 +9203,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9319,7 +9360,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9495,7 +9536,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9652,7 +9693,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9827,7 +9868,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9984,7 +10025,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10159,7 +10200,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -10366,7 +10407,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10523,7 +10564,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10699,7 +10740,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10856,7 +10897,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11032,7 +11073,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -11189,7 +11230,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11364,7 +11405,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -11521,7 +11562,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11696,7 +11737,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11880,7 +11921,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12076,7 +12117,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -12283,7 +12324,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12479,7 +12520,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12615,7 +12656,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -12773,7 +12814,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12891,7 +12932,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13027,7 +13068,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13145,7 +13186,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13281,7 +13322,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13441,7 +13482,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13619,7 +13660,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -13785,7 +13826,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -13992,7 +14033,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14170,7 +14211,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14335,7 +14376,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14513,7 +14554,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14678,7 +14719,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14856,7 +14897,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -15021,7 +15062,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -15199,7 +15240,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15365,7 +15406,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15549,7 +15590,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15715,7 +15756,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -15922,7 +15963,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16106,7 +16147,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16278,7 +16319,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16462,7 +16503,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16628,7 +16669,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16812,7 +16853,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16984,7 +17025,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17168,7 +17209,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17340,7 +17381,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17524,7 +17565,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
@@ -17738,7 +17779,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -17945,7 +17986,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18170,7 +18211,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -18383,7 +18424,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18608,7 +18649,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18815,7 +18856,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19022,7 +19063,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19229,7 +19270,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19436,7 +19477,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19643,7 +19684,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19850,7 +19891,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20057,7 +20098,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20264,7 +20305,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20472,7 +20513,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20685,7 +20726,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -20910,7 +20951,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -21123,7 +21164,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21348,7 +21389,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21573,7 +21614,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21798,7 +21839,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22023,7 +22064,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22248,7 +22289,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22473,7 +22514,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -22587,7 +22628,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -22795,7 +22836,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -23020,7 +23061,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23233,7 +23274,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23446,7 +23487,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23659,7 +23700,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23872,7 +23913,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24085,7 +24126,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24298,7 +24339,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24467,7 +24508,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24654,7 +24695,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24823,7 +24864,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -25016,7 +25057,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25203,7 +25244,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25372,7 +25413,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25560,7 +25601,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25729,7 +25770,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25917,7 +25958,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26105,7 +26146,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26274,7 +26315,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26462,7 +26503,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26631,7 +26672,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26800,7 +26841,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -26993,7 +27034,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27181,7 +27222,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27350,7 +27391,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27538,7 +27579,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27707,7 +27748,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27894,7 +27935,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -28063,7 +28104,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -28250,7 +28291,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -28406,7 +28447,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -28576,7 +28617,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28706,7 +28747,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -28911,7 +28952,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -29059,7 +29100,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29252,7 +29293,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29445,7 +29486,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29650,7 +29691,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29855,7 +29896,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30018,7 +30059,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30193,7 +30234,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30356,7 +30397,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30519,7 +30560,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30694,7 +30735,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -30899,7 +30940,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31062,7 +31103,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31237,7 +31278,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31400,7 +31441,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31575,7 +31616,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31750,7 +31791,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31913,7 +31954,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32088,7 +32129,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32251,7 +32292,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32426,7 +32467,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32601,7 +32642,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -32814,7 +32855,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32977,7 +33018,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -33152,7 +33193,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -33262,7 +33303,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33475,7 +33516,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33688,7 +33729,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -33889,7 +33930,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34090,7 +34131,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34299,11 +34340,11 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AB3" activeCellId="0" sqref="AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34516,7 +34557,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34717,7 +34758,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -34942,7 +34983,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35143,7 +35184,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35338,7 +35379,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35533,7 +35574,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35728,7 +35769,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35923,7 +35964,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36118,7 +36159,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36313,7 +36354,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36508,7 +36549,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36703,7 +36744,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36904,7 +36945,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -37117,7 +37158,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37318,7 +37359,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37519,7 +37560,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37720,7 +37761,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37921,7 +37962,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -38122,7 +38163,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38335,7 +38376,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38548,7 +38589,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38761,7 +38802,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38974,7 +39015,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39187,7 +39228,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -39412,7 +39453,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39625,7 +39666,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -39790,7 +39831,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -39974,7 +40015,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40170,7 +40211,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40366,7 +40407,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40550,7 +40591,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40707,7 +40748,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40883,7 +40924,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -41059,7 +41100,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -41216,7 +41257,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -41441,7 +41482,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41601,7 +41642,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41779,7 +41820,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -41945,7 +41986,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -42123,7 +42164,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42299,7 +42340,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42456,7 +42497,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42632,7 +42673,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42789,7 +42830,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42964,7 +43005,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -43121,7 +43162,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -43235,7 +43276,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -43454,15 +43495,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="12" style="1" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43473,60 +43515,90 @@
         <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -43538,60 +43610,90 @@
         <v>197</v>
       </c>
       <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>50000</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>630</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="N2" s="1" t="n">
+        <v>42000</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>35000</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="1" t="n">
+      <c r="S2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="R2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T2" s="1" t="n">
+      <c r="AB2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -43617,7 +43719,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43792,7 +43894,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43958,7 +44060,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44142,7 +44244,7 @@
       <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44326,7 +44428,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44498,7 +44600,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44676,18 +44778,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="35.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="13" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="27.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -44698,66 +44807,96 @@
         <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -44769,66 +44908,96 @@
         <v>197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>41000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="K2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="1" t="n">
+      <c r="U2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="P2" s="1" t="n">
+      <c r="X2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z2" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="AA2" s="1" t="n">
         <v>35000</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="AC2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="AD2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="AF2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -44854,7 +45023,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45032,7 +45201,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45210,7 +45379,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -45435,7 +45604,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45613,7 +45782,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45778,7 +45947,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45943,7 +46112,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
@@ -46113,7 +46282,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="23.08"/>
   </cols>
@@ -46264,7 +46433,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -46400,7 +46569,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46576,7 +46745,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46752,7 +46921,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -46909,7 +47078,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47084,7 +47253,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -47309,7 +47478,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47484,7 +47653,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47641,7 +47810,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47798,7 +47967,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47975,7 +48144,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -48152,7 +48321,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48314,7 +48483,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48476,7 +48645,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48638,7 +48807,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -48786,7 +48955,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -48810,7 +48979,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>46</v>
@@ -48852,7 +49021,7 @@
         <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>134</v>
@@ -48954,7 +49123,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -49179,7 +49348,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.66"/>
@@ -49199,7 +49368,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>46</v>
@@ -49241,7 +49410,7 @@
         <v>107</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>60</v>
@@ -49250,7 +49419,7 @@
         <v>61</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>134</v>
@@ -49361,7 +49530,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -49519,7 +49688,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49535,7 +49704,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>46</v>
@@ -49577,7 +49746,7 @@
         <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>134</v>
@@ -49679,7 +49848,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49703,7 +49872,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>46</v>
@@ -49736,7 +49905,7 @@
         <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>134</v>
@@ -49829,7 +49998,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49845,7 +50014,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>46</v>
@@ -49887,7 +50056,7 @@
         <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>134</v>
@@ -49989,7 +50158,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50017,13 +50186,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>46</v>
@@ -50131,7 +50300,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50155,7 +50324,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>46</v>
@@ -50188,7 +50357,7 @@
         <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>134</v>
@@ -50281,7 +50450,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -50446,7 +50615,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50582,7 +50751,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50700,7 +50869,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -50925,7 +51094,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51061,7 +51230,7 @@
       <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51245,7 +51414,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51411,7 +51580,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51577,7 +51746,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51761,7 +51930,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -51933,7 +52102,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -52117,7 +52286,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52235,7 +52404,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -52266,16 +52435,16 @@
         <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>55</v>
@@ -52284,7 +52453,7 @@
         <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52350,7 +52519,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -52507,7 +52676,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52720,7 +52889,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52856,7 +53025,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
@@ -52864,16 +53033,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -52898,7 +53067,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53111,7 +53280,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53324,7 +53493,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53537,7 +53706,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53750,7 +53919,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -53924,7 +54093,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -54137,7 +54306,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -54312,7 +54481,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54500,7 +54669,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54669,7 +54838,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54857,7 +55026,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55026,7 +55195,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55195,7 +55364,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55382,7 +55551,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55551,7 +55720,7 @@
       <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55738,7 +55907,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -55927,7 +56096,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56096,7 +56265,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56284,7 +56453,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56453,7 +56622,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56641,7 +56810,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56810,7 +56979,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56998,7 +57167,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57167,7 +57336,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57355,7 +57524,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57524,7 +57693,7 @@
       <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57711,7 +57880,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -57886,7 +58055,7 @@
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -58055,7 +58224,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -58242,7 +58411,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -58398,7 +58567,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -58568,7 +58737,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58698,7 +58867,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58846,7 +59015,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59009,7 +59178,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59184,7 +59353,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59347,7 +59516,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59510,7 +59679,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -59684,7 +59853,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59859,7 +60028,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60022,7 +60191,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60197,7 +60366,7 @@
       <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60360,7 +60529,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60535,7 +60704,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60698,7 +60867,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60873,7 +61042,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61036,7 +61205,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61211,7 +61380,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61374,7 +61543,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -61563,7 +61732,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61738,7 +61907,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61901,7 +62070,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62076,7 +62245,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62239,7 +62408,7 @@
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62414,7 +62583,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62577,7 +62746,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62752,7 +62921,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62915,7 +63084,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63090,7 +63259,7 @@
       <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63253,7 +63422,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -63466,7 +63635,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63641,7 +63810,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63804,7 +63973,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63979,7 +64148,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64180,7 +64349,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64393,7 +64562,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64594,7 +64763,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64807,7 +64976,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65002,7 +65171,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65197,7 +65366,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>

--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="299"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="273"/>
   </bookViews>
   <sheets>
     <sheet name="HPNR_BCH_withMaint_Edit" sheetId="1" state="visible" r:id="rId2"/>
@@ -946,7 +946,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10598" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10622" uniqueCount="220">
   <si>
     <t xml:space="preserve">Vehicle Basic Price</t>
   </si>
@@ -1749,10 +1749,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="C1:N2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -1929,10 +1929,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -2154,10 +2154,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2349,10 +2349,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2544,10 +2544,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2739,10 +2739,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2934,10 +2934,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3129,10 +3129,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3330,10 +3330,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3543,10 +3543,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3744,10 +3744,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3957,10 +3957,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4170,10 +4170,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -4383,10 +4383,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4596,10 +4596,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4809,10 +4809,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5022,10 +5022,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5235,10 +5235,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5448,10 +5448,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5649,10 +5649,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5850,10 +5850,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6051,10 +6051,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6252,10 +6252,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6453,10 +6453,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -6678,10 +6678,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6879,10 +6879,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -6989,10 +6989,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7154,10 +7154,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7331,10 +7331,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7493,10 +7493,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7670,10 +7670,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7832,10 +7832,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7994,10 +7994,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8151,10 +8151,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8327,10 +8327,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -8534,10 +8534,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8691,10 +8691,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8867,10 +8867,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9024,10 +9024,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9200,10 +9200,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9357,10 +9357,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9533,10 +9533,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9690,10 +9690,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9865,10 +9865,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10022,10 +10022,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10197,10 +10197,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -10404,10 +10404,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10561,10 +10561,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10737,10 +10737,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10894,10 +10894,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11070,10 +11070,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -11227,10 +11227,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11402,10 +11402,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -11559,10 +11559,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11734,10 +11734,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11918,10 +11918,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12114,10 +12114,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -12321,10 +12321,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12517,10 +12517,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12653,10 +12653,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -12811,10 +12811,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12929,10 +12929,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13065,10 +13065,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13183,10 +13183,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13319,10 +13319,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13479,10 +13479,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13657,10 +13657,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -13823,10 +13823,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -14030,10 +14030,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14208,10 +14208,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14373,10 +14373,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14551,10 +14551,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14716,10 +14716,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14894,10 +14894,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -15059,10 +15059,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -15237,10 +15237,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15403,10 +15403,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15587,10 +15587,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15753,10 +15753,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -15960,10 +15960,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16144,10 +16144,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16316,10 +16316,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16500,10 +16500,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16666,10 +16666,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16850,10 +16850,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17022,10 +17022,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17206,10 +17206,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17378,10 +17378,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17562,10 +17562,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
@@ -17776,10 +17776,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -17983,10 +17983,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18208,10 +18208,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -18421,10 +18421,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18646,10 +18646,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18853,10 +18853,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19060,10 +19060,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19267,10 +19267,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19474,10 +19474,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19681,10 +19681,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19888,10 +19888,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20095,10 +20095,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20302,10 +20302,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20510,10 +20510,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20723,10 +20723,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -20948,10 +20948,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -21161,10 +21161,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21386,10 +21386,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21611,10 +21611,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21836,10 +21836,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22061,10 +22061,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22286,10 +22286,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22511,10 +22511,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -22625,10 +22625,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -22833,10 +22833,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -23058,10 +23058,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23271,10 +23271,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23484,10 +23484,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23697,10 +23697,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23910,10 +23910,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24123,10 +24123,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24336,10 +24336,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24505,10 +24505,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24692,10 +24692,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24861,10 +24861,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -25054,10 +25054,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25241,10 +25241,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25410,10 +25410,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25598,10 +25598,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25767,10 +25767,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25955,10 +25955,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26143,10 +26143,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26312,10 +26312,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26500,10 +26500,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26669,10 +26669,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26838,10 +26838,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -27031,10 +27031,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27219,10 +27219,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27388,10 +27388,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27576,10 +27576,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27745,10 +27745,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27932,10 +27932,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -28101,10 +28101,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -28288,10 +28288,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -28444,10 +28444,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -28614,10 +28614,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28744,10 +28744,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -28949,10 +28949,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -29097,10 +29097,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29290,10 +29290,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29483,10 +29483,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29688,10 +29688,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29893,10 +29893,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30056,10 +30056,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30231,10 +30231,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30394,10 +30394,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30557,10 +30557,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30732,10 +30732,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -30937,10 +30937,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31100,10 +31100,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31275,10 +31275,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31438,10 +31438,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31613,10 +31613,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31788,10 +31788,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31951,10 +31951,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32126,10 +32126,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32289,10 +32289,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32464,10 +32464,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32639,10 +32639,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -32852,10 +32852,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -33015,10 +33015,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -33190,10 +33190,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -33300,10 +33300,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33513,10 +33513,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33726,10 +33726,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -33927,10 +33927,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34128,10 +34128,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34341,10 +34341,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB3" activeCellId="0" sqref="AB3"/>
+      <selection pane="topLeft" activeCell="AB3" activeCellId="1" sqref="C1:N2 AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34554,10 +34554,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34755,10 +34755,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -34980,10 +34980,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35181,10 +35181,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35376,10 +35376,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35571,10 +35571,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35766,10 +35766,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35961,10 +35961,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36156,10 +36156,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36351,10 +36351,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36543,17 +36543,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="15" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36564,78 +36565,114 @@
         <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -36646,79 +36683,115 @@
       <c r="B2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>46154</v>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>500</v>
       </c>
       <c r="K2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>42000</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>46154</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="W2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="X2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="AA2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Q2" s="1" t="n">
+      <c r="AB2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="AD2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="AE2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="AG2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="V2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="AH2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -36741,10 +36814,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36942,10 +37015,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -37155,10 +37228,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37356,10 +37429,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37557,10 +37630,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37758,10 +37831,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37956,17 +38029,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="15" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37977,81 +38052,117 @@
         <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -38062,82 +38173,118 @@
       <c r="B2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>46154</v>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>500</v>
       </c>
       <c r="K2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>41000</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>46154</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="W2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="X2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="AA2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Q2" s="1" t="n">
+      <c r="AB2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" s="1" t="n">
         <v>199.99</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="AD2" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="U2" s="1" t="n">
+      <c r="AE2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG2" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="AH2" s="1" t="n">
         <v>22000</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AK2" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AM2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -38160,10 +38307,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38373,10 +38520,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38586,10 +38733,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38799,10 +38946,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39012,10 +39159,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39225,10 +39372,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -39450,10 +39597,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39663,10 +39810,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -39828,10 +39975,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40012,10 +40159,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40208,10 +40355,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40404,10 +40551,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40588,10 +40735,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40745,10 +40892,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40921,10 +41068,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -41097,10 +41244,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -41254,10 +41401,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -41479,10 +41626,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41639,10 +41786,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41817,10 +41964,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -41983,10 +42130,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -42161,10 +42308,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42337,10 +42484,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42494,10 +42641,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42670,10 +42817,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42827,10 +42974,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43002,10 +43149,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -43159,10 +43306,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -43273,10 +43420,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -43497,11 +43644,11 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="12" style="1" width="23.08"/>
@@ -43716,10 +43863,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="C1:N2 Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43891,10 +44038,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -44057,10 +44204,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44241,10 +44388,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+      <selection pane="topLeft" activeCell="X2" activeCellId="1" sqref="C1:N2 X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44425,10 +44572,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44597,10 +44744,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44780,11 +44927,11 @@
   </sheetPr>
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.8"/>
@@ -45020,10 +45167,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45198,10 +45345,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45376,10 +45523,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -45601,10 +45748,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45779,10 +45926,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45944,10 +46091,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -46109,10 +46256,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
@@ -46279,10 +46426,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="23.08"/>
   </cols>
@@ -46430,10 +46577,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -46566,10 +46713,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46742,10 +46889,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46918,10 +47065,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47075,10 +47222,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47250,10 +47397,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -47475,10 +47622,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47650,10 +47797,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47807,10 +47954,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47964,10 +48111,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -48141,10 +48288,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -48318,10 +48465,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48480,10 +48627,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48642,10 +48789,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48804,10 +48951,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -48952,10 +49099,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49120,10 +49267,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -49345,10 +49492,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.66"/>
@@ -49527,10 +49674,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -49685,10 +49832,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49845,10 +49992,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49995,10 +50142,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50155,10 +50302,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50297,10 +50444,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50447,10 +50594,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -50612,10 +50759,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50748,10 +50895,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50866,10 +51013,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -51091,10 +51238,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51227,10 +51374,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="topLeft" activeCell="Y1" activeCellId="1" sqref="C1:N2 Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51411,10 +51558,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51577,10 +51724,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51743,10 +51890,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51927,10 +52074,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -52099,10 +52246,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -52283,10 +52430,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52401,10 +52548,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.30078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -52516,10 +52663,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:N2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -52673,10 +52820,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52886,10 +53033,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -53022,10 +53169,10 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
@@ -53064,10 +53211,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53277,10 +53424,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53490,10 +53637,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53703,10 +53850,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53916,10 +54063,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -54090,10 +54237,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -54303,10 +54450,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -54478,10 +54625,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54666,10 +54813,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54835,10 +54982,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55023,10 +55170,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="C1:N2 O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55192,10 +55339,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55361,10 +55508,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55548,10 +55695,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55717,10 +55864,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="C1:N2 Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55904,10 +56051,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -56093,10 +56240,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56262,10 +56409,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56450,10 +56597,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="C1:N2 R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56619,10 +56766,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="C1:N2 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56807,10 +56954,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="C1:N2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56976,10 +57123,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57164,10 +57311,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57333,10 +57480,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57521,10 +57668,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57690,10 +57837,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="C1:N2 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57877,10 +58024,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -58052,10 +58199,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="C1:N2 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -58221,10 +58368,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -58408,10 +58555,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -58564,10 +58711,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -58734,10 +58881,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58864,10 +59011,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -59012,10 +59159,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59175,10 +59322,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59350,10 +59497,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59513,10 +59660,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="C1:N2 E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59676,10 +59823,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -59850,10 +59997,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60025,10 +60172,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60188,10 +60335,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60363,10 +60510,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+      <selection pane="topLeft" activeCell="V2" activeCellId="1" sqref="C1:N2 V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60526,10 +60673,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60701,10 +60848,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60864,10 +61011,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61039,10 +61186,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61202,10 +61349,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61377,10 +61524,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61540,10 +61687,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -61729,10 +61876,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C1:N2 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61904,10 +62051,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62067,10 +62214,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62242,10 +62389,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62405,10 +62552,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62580,10 +62727,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62743,10 +62890,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62918,10 +63065,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63081,10 +63228,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63256,10 +63403,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63419,10 +63566,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -63632,10 +63779,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="1" sqref="C1:N2 P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63807,10 +63954,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63970,10 +64117,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -64145,10 +64292,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64346,10 +64493,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64559,10 +64706,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22